--- a/Data/F022.TDB.TIS.D030.NO.Z.D.xlsx
+++ b/Data/F022.TDB.TIS.D030.NO.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5420"/>
+  <dimension ref="A1:C5421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92506,6 +92506,23 @@
         </is>
       </c>
     </row>
+    <row r="5421">
+      <c r="A5421" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B5421" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="C5421" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.TDB.TIS.D030.NO.Z.D.xlsx
+++ b/Data/F022.TDB.TIS.D030.NO.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5421"/>
+  <dimension ref="A1:C5422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92523,6 +92523,23 @@
         </is>
       </c>
     </row>
+    <row r="5422">
+      <c r="A5422" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B5422" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="C5422" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.TDB.TIS.D030.NO.Z.D.xlsx
+++ b/Data/F022.TDB.TIS.D030.NO.Z.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5422"/>
+  <dimension ref="A1:C5425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92540,6 +92540,57 @@
         </is>
       </c>
     </row>
+    <row r="5423">
+      <c r="A5423" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B5423" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C5423" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5424">
+      <c r="A5424" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B5424" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="C5424" t="inlineStr">
+        <is>
+          <t>ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="5425">
+      <c r="A5425" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B5425" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="C5425" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
